--- a/ml-proj-simcse/code investigate.xlsx
+++ b/ml-proj-simcse/code investigate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace\my-public-examples\ml-proj-simcse-clone-for-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace\my-public-examples\ml-proj-simcse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2B6E9-A71F-4A76-9752-F6ED918EEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB47BC5-D8F4-46A5-8C64-38EEA257DE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{76B5CA46-A3CB-474E-A219-527CECC4C43D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76B5CA46-A3CB-474E-A219-527CECC4C43D}"/>
   </bookViews>
   <sheets>
     <sheet name="unsupervised simcse" sheetId="1" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B12113-82E7-47E0-A16D-A8FA838813AC}">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8616F6E-550B-4684-A136-21968BE9E76D}">
   <dimension ref="A3:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="P120" sqref="P120"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
